--- a/Fichas/Ficha Cleber.xlsx
+++ b/Fichas/Ficha Cleber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashzi\Documents\RPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashzi\Documents\RPG\Fichas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FAED7F-AEFF-44A1-86EF-B5B922294EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F64D406-5BE3-43DE-9129-C766C5A6BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{B06712FB-01E1-4038-87FF-6E8B7BD1F9D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B06712FB-01E1-4038-87FF-6E8B7BD1F9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ligma" sheetId="1" r:id="rId1"/>
@@ -2470,18 +2470,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2491,6 +2491,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2506,23 +2521,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4432,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F22E24-4638-4394-AA75-6D064ADBD3D9}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,7 +4650,9 @@
       <c r="F9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="82"/>
+      <c r="G9" s="82">
+        <v>6</v>
+      </c>
       <c r="H9" s="83"/>
       <c r="K9" s="21">
         <v>6</v>
@@ -4976,7 +4978,7 @@
       <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="95" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="93"/>
@@ -5016,7 +5018,7 @@
       <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="93"/>
@@ -5056,7 +5058,7 @@
       <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="95" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="93"/>
@@ -5088,7 +5090,7 @@
       <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="95" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="93"/>
@@ -5120,7 +5122,7 @@
       <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="95" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="93"/>
@@ -5149,7 +5151,7 @@
       <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="95" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="93"/>
@@ -5173,7 +5175,7 @@
       <c r="M16" s="63"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="95" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="93"/>
@@ -5197,7 +5199,7 @@
       <c r="M18" s="63"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="95" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="93"/>
@@ -5221,7 +5223,7 @@
       <c r="M20" s="63"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="95" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="93"/>
@@ -5236,9 +5238,9 @@
       <c r="B22" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="24"/>
       <c r="K22" s="67"/>
       <c r="L22" s="68"/>
@@ -5247,6 +5249,32 @@
     <row r="23" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -5263,32 +5291,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
@@ -5339,18 +5341,18 @@
       </c>
       <c r="D3" s="16">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="22">
         <f ca="1">SUM(C3:D3)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H3" s="24">
         <f ca="1">VLOOKUP(G3,B2:E31,4,FALSE)</f>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5364,11 +5366,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" ref="D4:D31" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E31" ca="1" si="1">SUM(C4:D4)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5382,11 +5384,11 @@
       </c>
       <c r="D5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -5400,11 +5402,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -5418,11 +5420,11 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5436,11 +5438,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5454,11 +5456,11 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -5472,11 +5474,11 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -5490,11 +5492,11 @@
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -5508,11 +5510,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5526,11 +5528,11 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -5544,11 +5546,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5562,11 +5564,11 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -5580,11 +5582,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -5598,11 +5600,11 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -5616,11 +5618,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -5634,11 +5636,11 @@
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -5652,11 +5654,11 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -5670,11 +5672,11 @@
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -5688,11 +5690,11 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -5706,11 +5708,11 @@
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -5724,11 +5726,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -5742,11 +5744,11 @@
       </c>
       <c r="D25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -5760,11 +5762,11 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -5778,11 +5780,11 @@
       </c>
       <c r="D27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E27" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -5796,11 +5798,11 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -5814,11 +5816,11 @@
       </c>
       <c r="D29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -5832,11 +5834,11 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5850,11 +5852,11 @@
       </c>
       <c r="D31" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5876,7 +5878,7 @@
   <dimension ref="B1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,8 +6335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6B56B9-F1B4-4F98-9F1B-912E31ABCBA1}">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6351,7 +6353,7 @@
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
-      <c r="E2" s="106"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="77"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -6400,11 +6402,11 @@
       <c r="B7" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="98"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -6512,10 +6514,10 @@
       <c r="B16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="75" t="s">
         <v>174</v>
       </c>
@@ -6536,10 +6538,10 @@
       <c r="B17" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="104"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="5">
         <v>1</v>
       </c>
@@ -6560,8 +6562,8 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
@@ -6576,8 +6578,8 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -6592,8 +6594,8 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
@@ -6608,8 +6610,8 @@
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13">
@@ -6640,20 +6642,20 @@
       <c r="B24" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="106">
         <v>150</v>
       </c>
-      <c r="D24" s="102"/>
+      <c r="D24" s="107"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="99" t="str">
+      <c r="C25" s="104" t="str">
         <f>IF(C23 &gt; D23, "Sobrecarga","Sem Penalidade")</f>
         <v>Sem Penalidade</v>
       </c>
-      <c r="D25" s="100"/>
+      <c r="D25" s="105"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6678,7 +6680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7791FD5-C80F-4EB7-A982-BC7D3CD79ADB}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="88" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
